--- a/biology/Botanique/Déhiscence_(botanique)/Déhiscence_(botanique).xlsx
+++ b/biology/Botanique/Déhiscence_(botanique)/Déhiscence_(botanique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9hiscence_(botanique)</t>
+          <t>Déhiscence_(botanique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En botanique, la déhiscence, du latin dehiscens, « s'entrouvrir », est l'ouverture, spontanée et à maturité, d'organes végétaux clos (anthères, fruits) suivant des zones définies, pour libérer leur contenu (graines, pollen, spores, etc.).
 Dans le cas contraire (indéhiscence), l'organe ne s'ouvre pas et doit subir une décomposition organique ou une digestion par un animal pour libérer son contenu, et permettre à la graine qu'il contient de germer.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9hiscence_(botanique)</t>
+          <t>Déhiscence_(botanique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Inventaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le colchique, l'iris, le pavot, le tabac commun, entre autres, ont des fruits déhiscents.
 En été, les fruits de l'acanthe explosent, projetant les graines au loin et permettant une meilleure dissémination.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9hiscence_(botanique)</t>
+          <t>Déhiscence_(botanique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,14 +560,16 @@
           <t>Caractérisation des anthères par leurs types de déhiscence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Déhiscence loculicide transversale
 			Déhiscence loculicide longitudinale
 			Déhiscence valvulaire
 			Déhiscence poricide
-Les anthères de 6 à 8 % des espèces de plantes à fleurs sont à déhiscence poricide, ce qui restreint l'entomophilie (collecte de pollen par les insectes) qui est compensée par une autofécondation ou une pollinisation vibratile[1].
+Les anthères de 6 à 8 % des espèces de plantes à fleurs sont à déhiscence poricide, ce qui restreint l'entomophilie (collecte de pollen par les insectes) qui est compensée par une autofécondation ou une pollinisation vibratile.
 </t>
         </is>
       </c>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9hiscence_(botanique)</t>
+          <t>Déhiscence_(botanique)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Caractérisation des fruits par leur mode de déhiscence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fruits peuvent se caractériser par leur type de placentation et leur mode de déhiscence.
 Selon le type de fruit, la déhiscence est la suivante :
